--- a/2025-03-03_o3-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Food impaction.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gradual onset of dysphagia affecting both solids and liquids</t>
+          <t>Gradual, progressive dysphagia affecting both solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome with Type 2 Achalasia typically presents with progressive difficulty swallowing both solids and liquids, reflecting a motility disorder, unlike the intermittent solid-only obstruction of food impaction.</t>
+          <t>A slowly worsening difficulty swallowing is typical for motility disorders such as Type 2 Achalasia seen in CREST syndrome, rather than the sudden obstruction seen with food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sudden onset of dysphagia following ingestion of a large bolus of food</t>
+          <t>Acute onset of dysphagia immediately following a meal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Food impaction typically presents with an acute, event-related onset of symptoms immediately after eating, which is not characteristic of the gradual progression seen in CREST with achalasia.</t>
+          <t>Sudden difficulty swallowing right after eating is more consistent with food impaction than with a gradually progressive motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of reflux symptoms not strictly related to meal triggers</t>
+          <t>Longer duration of symptoms with intermittent chest discomfort and regurgitation of undigested food</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome and achalasia may report chronic reflux or regurgitation symptoms that are not limited to discrete episodes of eating, unlike the immediate discomfort of food impaction.</t>
+          <t>Chronic symptoms with intermittent regurgitation point towards esophageal dysmotility as in CREST with Type 2 Achalasia instead of the acute events of food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dysphagia predominantly limited to solid foods without involvement of liquids</t>
+          <t>Sensation of food being physically stuck in the esophagus</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Food impaction preferentially affects solids due to mechanical obstruction, while motility disorders like achalasia affect both solids and liquids.</t>
+          <t>A clear description of food 'sticking' immediately after ingestion directly supports the diagnosis of food impaction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Accompanying systemic features suggestive of connective tissue disease (e.g., skin thickening, Raynaud phenomenon)</t>
+          <t>Associated systemic features reported in the HPI (e.g., Raynaud's phenomenon, skin tightening)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of systemic or extra-esophageal symptoms supports an underlying connective tissue disorder (CREST syndrome) as opposed to an isolated mechanical event like food impaction.</t>
+          <t>When patients describe systemic issues such as cold-induced color changes in digits and tightening of the skin, it supports the diagnosis of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sensation of food being lodged in the esophagus with immediate painful discomfort</t>
+          <t>Intermittent episodes triggered by eating without preceding chronic symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The acute sensation of obstruction and localized pain is typical for food impaction, and is rarely seen in a motility disorder where discomfort is more diffuse.</t>
+          <t>Episodes that occur in correlation with specific eating events and lack chronic progression favor a mechanical obstruction like food impaction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gradual weight loss associated with long-standing dysphagia</t>
+          <t>History of reflux symptoms with a sensation of food backing up</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic progressive dysphagia in CREST syndrome with achalasia often results in nutritional issues leading to weight loss, a pattern not typical for acute food impaction.</t>
+          <t>Chronic reflux with a sensation of retrograde movement of food aligns more with esophageal dysmotility as seen in CREST syndrome rather than with a discrete food bolus impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rapid symptom resolution following regurgitation or manipulation (e.g., water intake, physical maneuvers)</t>
+          <t>Reports of immediate relief with maneuvers such as drinking liquids or regurgitation of the bolus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Food impaction often resolves quickly if the obstruction is relieved, in contrast to the persistent symptoms from esophageal dysmotility in CREST syndrome.</t>
+          <t>Immediate relief after consumption of liquids or self-resolution of symptoms is typical for food impaction wherein the bolus clears spontaneously.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Long duration of symptoms with intermittent but progressively worsening episodes</t>
+          <t>Gradual onset of dysphagia not directly linked to a specific eating event</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The chronic and progressive nature of symptoms, including intermittent episodes that worsen over time, fits a motility disorder such as Type 2 Achalasia as seen in CREST syndrome, differentiating it from the acute and episodic symptoms of food impaction.</t>
+          <t>A lack of a clear precipitating event (like a large bite or rapid swallowing) suggests an underlying motility disorder typical of Type 2 Achalasia rather than an acute mechanical blockage from food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of systemic or connective tissue symptoms</t>
+          <t>Absence of systemic or multi-system complaints (e.g., no Raynaud's phenomenon or skin changes)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of associated symptoms like skin changes or Raynaud phenomenon supports a localized mechanical obstruction (food impaction) rather than a systemic disorder like CREST syndrome.</t>
+          <t>The lack of broader systemic features described in the HPI suggests that the swallowing difficulty is isolated to a mechanical obstruction from food rather than a systemic dysmotility disorder.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Documented diagnosis of CREST syndrome or systemic sclerosis</t>
+          <t>Established diagnosis of CREST syndrome or limited cutaneous systemic sclerosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A confirmed diagnosis of CREST syndrome directly associates with esophageal dysmotility and type 2 achalasia, strongly differentiating it from isolated food impaction.</t>
+          <t>A documented history of CREST syndrome is a hallmark of systemic sclerosis involving vascular, connective tissue, and esophageal dysmotility; this strongly supports the diagnosis, as food impaction generally lacks a background of systemic autoimmune disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of recurrent food impaction episodes</t>
+          <t>History of prior episodes of food impaction with mechanical obstruction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Recurrent episodes of food impaction indicate a localized mechanical or structural esophageal problem, which strongly favors the diagnosis of food impaction over CREST syndrome.</t>
+          <t>A history of repeated food impaction events without systemic manifestations indicates a localized esophageal mechanical problem rather than a systemic dysmotility disorder.</t>
         </is>
       </c>
     </row>
@@ -640,83 +640,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud phenomenon is a classic component of CREST syndrome, making its presence a strong indicator for CREST-related esophageal involvement.</t>
+          <t>Raynaud phenomenon, a vasospastic disorder, is highly associated with CREST syndrome and is not typically seen in isolated food impaction cases.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of esophageal stricture and/or previous esophageal dilation procedures</t>
+          <t>Past surgical history of endoscopic foreign body removal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A past history of structural esophageal narrowing requiring dilation supports a local mechanical cause rather than the motility dysfunction seen in CREST syndrome.</t>
+          <t>Previous need for endoscopic removal of food boluses suggests a recurrent mechanical or obstructive cause rather than a systemic motility disorder found in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>Past medical history of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thickening and tightening of the skin of the fingers) is highly specific for CREST syndrome and supports a systemic etiology over a localized food impaction event.</t>
+          <t>Esophageal dysmotility is common in CREST syndrome, causing symptoms that mimic achalasia, and is less characteristic of uncomplicated food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of esophageal diverticulum diagnosis or repair</t>
+          <t>History of esophageal structural abnormalities (e.g., strictures, rings)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>An esophageal diverticulum can predispose to food impaction, indicating an anatomical cause distinct from the systemic esophageal dysmotility seen in CREST.</t>
+          <t>Structural lesions predispose to food impaction and typically do not occur in CREST syndrome, which more often involves a motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Documented telangiectasias</t>
+          <t>History of sclerodactyly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasias are a characteristic finding in CREST syndrome, providing supportive evidence for a systemic scleroderma process contributing to esophageal dysmotility.</t>
+          <t>Sclerodactyly (skin thickening of the fingers) is a distinct feature of CREST syndrome and helps differentiate it from food impaction, which does not have a systemic connective tissue component.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of systemic autoimmune disease history</t>
+          <t>Previous diagnosis of eosinophilic esophagitis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of a history of systemic autoimmune conditions such as CREST syndrome decreases the likelihood of type 2 achalasia related to scleroderma, favoring a mechanical obstruction such as food impaction.</t>
+          <t>Eosinophilic esophagitis is an inflammatory condition causing food impaction and is distinct from the autoimmune and fibrotic process of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of immunomodulatory treatment (e.g., mycophenolate mofetil)</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Use of immunosuppressive agents is common in managing systemic sclerosis/CREST syndrome and supports a diagnosis involving systemic autoimmune pathology rather than isolated food impaction.</t>
+          <t>Telangiectasia is another component of CREST syndrome indicating underlying vascular pathology; its presence supports a systemic process rather than a localized mechanical obstruction such as food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of isolated dysphagia without other systemic symptoms</t>
+          <t>Lack of a history of systemic autoimmune symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dysphagia occurring without additional symptoms of systemic sclerosis (e.g., Raynaud phenomenon, sclerodactyly) is more typical for a localized esophageal disorder leading to food impaction.</t>
+          <t>Absence of features such as Raynaud phenomenon, sclerodactyly, or telangiectasia supports a localized mechanical cause like food impaction rather than a systemic disorder like CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive family history of autoimmune connective tissue diseases</t>
+          <t>Positive family history of autoimmune connective tissue disorders</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune or connective tissue disorders (such as scleroderma) strongly supports CREST syndrome, as these conditions frequently cluster in families.</t>
+          <t>A family history of autoimmune diseases (e.g., CREST, systemic sclerosis) increases the pretest probability for CREST syndrome with Type 2 Achalasia, as autoimmune phenomena tend to cluster.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of rapid eating habits or inadequate mastication</t>
+          <t>History of rapid eating or poor mastication habits</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Such eating behaviors increase the risk of food impaction and are not typically associated with CREST syndrome.</t>
+          <t>Rapid consumption of food or failure to chew properly increases the risk of food impaction and is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Positive personal history of autoimmune conditions</t>
+          <t>Family history of Raynaud's phenomenon or related microvascular disease</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Even within social history, revealing that the patient has other autoimmune disorders supports a predisposition toward CREST syndrome with its associated esophageal dysmotility.</t>
+          <t>Raynaud's phenomenon is a common component of CREST syndrome and tends to have a familial or genetic predisposition, thus favoring CREST over isolated food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of family history of autoimmune/connective tissue diseases</t>
+          <t>Social history of alcohol misuse</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A family history lacking autoimmune conditions argues against a diagnosis of CREST syndrome and makes a mechanical cause of food impaction more likely.</t>
+          <t>Alcohol misuse can be linked to reduced neuromuscular control and improper chewing, increasing the risk for food impaction rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Family history of CREST-specific features (e.g., Raynaud phenomenon)</t>
+          <t>Social engagement in support groups for autoimmune/connective tissue diseases</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history including features such as Raynaud phenomenon increases the likelihood of CREST syndrome, which often presents with such vasospastic manifestations.</t>
+          <t>Participation in such groups may indicate personal or familial experience with CREST or similar conditions, indirectly supporting a CREST diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Social history indicating high consumption of foods known to cause impaction (e.g., poorly chewed meats)</t>
+          <t>History of cognitive impairment in social/familial context</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dietary habits that favor ingestion of bulky or poorly chewed foods predispose to food impaction and are unrelated to CREST syndrome.</t>
+          <t>Cognitive impairment is more frequently associated with accidental food impaction and is not typically associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Demographic factors: older female gender in family/social context</t>
+          <t>History of intrinsically low-risk eating behaviors</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CREST syndrome has a higher prevalence in middle-aged to older women; a social context reflecting this demographic supports this diagnosis over food impaction.</t>
+          <t>Absence of risk behaviors for food impaction (e.g., rapid eating, inadequate chewing) in the social narrative makes CREST more likely when dysphagia is present.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of alcohol use associated with poor eating habits</t>
+          <t>Family history of dysphagia related to anatomical abnormalities (excluding autoimmune conditions)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alcohol use can impair chewing and swallowing coordination, increasing the risk for food impaction while not being linked to CREST syndrome.</t>
+          <t>A family history that points toward mechanical or structural issues leading to food impaction, rather than connective tissue diseases, favors food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Social support network or community affiliation related to connective tissue disorders</t>
+          <t>Lack of social history factors predisposing to foreign body ingestion</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Involvement in patient support groups or communities for autoimmune diseases may indicate awareness and personal experience with systemic features, indirectly supporting CREST syndrome.</t>
+          <t>A social history without scenarios such as alcohol misuse or cognitive impairment—which increase risk for food impaction—favors the diagnosis of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lack of engagement with support networks for autoimmune conditions</t>
+          <t>Social participation in community settings where rapid dining is common (e.g., competitive eating, fast-paced work environments)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of connection to communities or groups focused on autoimmune disease contrasts with the typical social history of patients with CREST syndrome.</t>
+          <t>Environments that encourage hurried meals are more likely to predispose individuals to food impaction rather than to an autoimmune disorder like CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sclerodactyly (thick, tight skin on the fingers)</t>
+          <t>Sclerodactyly (thickening and tightness of the skin on the fingers)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Highly indicative of systemic sclerosis, a key component of CREST syndrome, and not seen in isolated food impaction.</t>
+          <t>The presence of sclerodactyly is a hallmark of CREST syndrome and is not expected in isolated food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oropharyngeal pooling of saliva or drooling</t>
+          <t>Visible food bolus in the oropharynx</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This indicates an acute esophageal obstruction, which is more consistent with food impaction rather than the chronic dysmotility seen in CREST.</t>
+          <t>Direct visualization of food residue or bolus in the oropharynx strongly suggests food impaction rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasia on the face and hands</t>
+          <t>Telangiectasia (small dilated blood vessels on the skin of the face or hands)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>These small dilated blood vessels are a hallmark of CREST syndrome and are absent in simple food impaction.</t>
+          <t>Telangiectasias are common in CREST syndrome and are rarely seen in food impaction cases.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Visible residue of food in the oropharynx or proximal esophagus</t>
+          <t>Acute signs of choking or drooling</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Direct physical evidence of food accumulation, supporting the diagnosis of food impaction over CREST syndrome.</t>
+          <t>The presence of drooling and acute choking on exam indicates an obstructive event like food impaction, not a chronic connective tissue disorder.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Microstomia (reduced oral aperture)</t>
+          <t>Calcinosis (palpable subcutaneous calcific deposits, particularly in fingertips)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A common physical exam finding in CREST syndrome due to skin tightening, not associated with food impaction.</t>
+          <t>Calcinosis is a distinctive feature of CREST syndrome not associated with food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Acute distress with observable choking or regurgitation during exam</t>
+          <t>Absence of cutaneous findings (lack of telangiectasia, sclerodactyly)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Acute signs such as choking are more indicative of a mechanical obstruction (food impaction) rather than the gradual esophageal dysmotility in CREST.</t>
+          <t>A normal skin exam without findings such as sclerodactyly or telangiectasia is more consistent with food impaction than CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Calcinosis (palpable subcutaneous calcium deposits)</t>
+          <t>Microstomia (reduced oral aperture)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Often observed in CREST syndrome on physical exam; this is not a feature in food impaction cases.</t>
+          <t>Microstomia results from skin tightening in CREST syndrome and is not observed in food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of sclerodactyly or dermal changes on physical exam</t>
+          <t>Facial or neck distress with inability to handle secretions</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The lack of characteristic skin findings associated with CREST syndrome supports a diagnosis of food impaction.</t>
+          <t>Objective signs of distress localized to the oropharynx and neck, such as labored swallowing with secretion pooling, support food impaction.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon observed on examination</t>
+          <t>Abnormal digital color changes suggestive of Raynaud’s phenomenon (episodic pallor, cyanosis, then rubor)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Color changes in the digits upon cold exposure or stress are characteristic of CREST syndrome and are not findings in food impaction.</t>
+          <t>Physical exam findings indicative of Raynaud's phenomenon support CREST syndrome, as they are uncommon in food impaction.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal skin and digital examination without telangiectasia</t>
+          <t>Normal examination of the hands and fingers</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal exam of the skin and digits argues against CREST syndrome and favors a localized esophageal event like food impaction.</t>
+          <t>Finding no abnormalities (i.e., absence of skin tightening or digital calcinosis) on hand exam argues against CREST syndrome and favors food impaction.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>High lower esophageal sphincter (LES) pressure with panesophageal pressurization on esophageal manometry</t>
+          <t>High-resolution esophageal manometry consistent with Type II achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manometric features such as elevated LES pressure and panesophageal pressurization are classic for type 2 achalasia seen in CREST syndrome, and are not observed in simple food impaction.</t>
+          <t>Manometry shows intermittent pan-esophageal pressurization and low amplitude non-peristaltic contractions, which are characteristic of Type II achalasia seen in CREST syndrome, rather than the normal motility expected in isolated food impaction.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Visualization of impacted food bolus on endoscopy</t>
+          <t>Endoscopic visualization of impacted food bolus</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Direct endoscopic evidence of a food bolus lodged in the esophagus is definitive for food impaction and is not a feature of achalasia.</t>
+          <t>Direct endoscopic identification of food material lodged in the esophagus strongly supports food impaction rather than a functional motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Incomplete LES relaxation on esophageal manometry</t>
+          <t>Barium swallow showing a ‘bird beak’ narrowing with diffuse esophageal dilation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Incomplete relaxation of the LES during swallowing is a hallmark of achalasia, strongly supporting CREST syndrome with type 2 achalasia rather than a transient food bolus obstruction.</t>
+          <t>The ‘bird beak’ tapering with delayed barium transit is typical of esophageal motility disorders in CREST syndrome with achalasia, which is not a feature of transient food impaction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CT imaging showing a localized hyperdense obstructive mass consistent with a food bolus</t>
+          <t>CT scan showing a discrete intraluminal, radiopaque mass</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CT findings of a discrete, hyperdense object within the esophagus support the diagnosis of food impaction rather than motility disorder.</t>
+          <t>CT imaging that demonstrates a focal, dense mass within the esophageal lumen is indicative of food impaction, which is absent in CREST syndrome with achalasia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'Bird beak' sign on barium esophagram</t>
+          <t>Endoscopic findings of tight lower esophageal sphincter without obstructive intraluminal mass</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The tapered narrowing at the gastroesophageal junction, or 'bird beak' sign, is typical in achalasia and is not a feature of food impaction.</t>
+          <t>Endoscopy revealing a functionally abnormal but patent lower esophageal sphincter helps differentiate motility disorder (CREST with achalasia) from mechanical obstruction by food impaction.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of abnormal esophageal motility on manometric evaluation</t>
+          <t>Barium swallow revealing an abrupt filling defect</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry argues against type 2 achalasia seen in CREST syndrome and favors a diagnosis of food impaction.</t>
+          <t>An abrupt interruption in contrast flow, consistent with a filling defect from impacted food, provides strong evidence for food impaction as opposed to the gradual tapering seen in achalasia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal dilation observed on imaging</t>
+          <t>CT imaging showing a dilated esophagus with smooth tapering at the gastroesophageal junction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esophageal dilation indicates chronic esophageal motility dysfunction, characteristic of achalasia in CREST syndrome rather than an acute food impaction.</t>
+          <t>CT imaging that demonstrates esophageal dilation with a smooth narrowing rather than an abrupt filling defect supports a diagnosis of motility disorder over an obstructive process like food impaction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rapid symptom resolution following endoscopic food bolus removal</t>
+          <t>Rapid resolution of imaging abnormality after endoscopic removal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Immediate improvement after extraction is characteristic of a transient obstructive event due to food impaction rather than a chronic motility disorder.</t>
+          <t>If follow-up imaging after endoscopic intervention shows normalization of the esophageal lumen, it strongly supports a transient obstructive process like food impaction rather than a chronic motility disorder.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive anti-centromere antibody (ACA) on serologic testing</t>
+          <t>Absence of radiopaque intraluminal mass on imaging studies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A positive ACA test supports an underlying connective tissue disorder such as CREST syndrome, which is associated with esophageal dysmotility and achalasia, unlike food impaction.</t>
+          <t>Imaging that fails to show a discrete mass or bolus effect reinforces a diagnosis of CREST syndrome with Type II achalasia, as food impaction typically presents with a clearly visualized obstructing material.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No evidence of esophageal dilation on imaging</t>
+          <t>Absence of esophageal motility abnormalities on manometry post-clearance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of chronic esophageal dilation on imaging supports food impaction, as dilation is expected in achalasia from prolonged esophageal stasis.</t>
+          <t>A normal post-intervention manometric study suggests that prior symptoms were due to an obstructive bolus rather than an underlying motility disorder, hence favoring food impaction.</t>
         </is>
       </c>
     </row>
